--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_HoangGia.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_HoangGia.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="24" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>STT</t>
   </si>
@@ -437,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -592,15 +592,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -621,42 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -978,7 +975,7 @@
     <col min="6" max="6" width="15.85546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="17" style="20" customWidth="1"/>
     <col min="8" max="8" width="35.42578125" style="20" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="45.28515625" style="59" customWidth="1"/>
     <col min="10" max="10" width="53" style="20" customWidth="1"/>
     <col min="11" max="11" width="33.42578125" style="20" customWidth="1"/>
     <col min="12" max="12" width="30.7109375" style="26" customWidth="1"/>
@@ -997,46 +994,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="67"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="21"/>
       <c r="K2" s="21"/>
       <c r="L2" s="22"/>
@@ -1061,7 +1058,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="68"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -1078,58 +1075,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="60" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -1151,26 +1148,26 @@
       <c r="H5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="69" t="s">
+      <c r="I5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="54"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,7 +1191,7 @@
         <v>65</v>
       </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="52" t="s">
         <v>69</v>
       </c>
       <c r="J6" s="40" t="s">
@@ -1222,7 +1219,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1241,7 +1238,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="40"/>
       <c r="K7" s="43"/>
       <c r="L7" s="40"/>
@@ -1253,7 +1250,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1270,7 +1267,7 @@
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="40"/>
       <c r="K8" s="41"/>
       <c r="L8" s="40"/>
@@ -1282,7 +1279,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1296,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="43"/>
@@ -1311,7 +1308,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1328,7 +1325,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="41"/>
@@ -1340,7 +1337,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1357,7 +1354,7 @@
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="53"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="40"/>
@@ -1369,7 +1366,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1383,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="70"/>
+      <c r="I12" s="56"/>
       <c r="J12" s="40"/>
       <c r="K12" s="1"/>
       <c r="L12" s="40"/>
@@ -1398,7 +1395,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1417,7 +1414,7 @@
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="53"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="40"/>
@@ -1429,7 +1426,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1446,7 +1443,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="53"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="40"/>
       <c r="K14" s="1"/>
       <c r="L14" s="40"/>
@@ -1458,7 +1455,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1475,7 +1472,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="70"/>
+      <c r="I15" s="56"/>
       <c r="J15" s="40"/>
       <c r="K15" s="1"/>
       <c r="L15" s="40"/>
@@ -1487,7 +1484,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1504,7 +1501,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="70"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="40"/>
@@ -1516,7 +1513,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -1533,7 +1530,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="53"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="40"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1560,7 +1557,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="70"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1587,7 +1584,7 @@
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="70"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1618,7 +1615,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="70"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1650,7 +1647,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="70"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1682,7 +1679,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="70"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
@@ -1714,7 +1711,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="70"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="1"/>
       <c r="K23" s="10"/>
       <c r="L23" s="10"/>
@@ -1741,7 +1738,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="70"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="1"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
@@ -1768,7 +1765,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="10"/>
-      <c r="I25" s="70"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="1"/>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1799,7 +1796,7 @@
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="10"/>
-      <c r="I26" s="70"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="1"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1831,7 +1828,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="70"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="1"/>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1863,7 +1860,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="70"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="10"/>
@@ -1895,7 +1892,7 @@
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="70"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="10"/>
@@ -1927,7 +1924,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="70"/>
+      <c r="I30" s="56"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1959,7 +1956,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="70"/>
+      <c r="I31" s="56"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1991,7 +1988,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="70"/>
+      <c r="I32" s="56"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -2023,7 +2020,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="70"/>
+      <c r="I33" s="56"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -2055,7 +2052,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="70"/>
+      <c r="I34" s="56"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2087,7 +2084,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="70"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -2119,7 +2116,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="70"/>
+      <c r="I36" s="56"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2151,7 +2148,7 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="70"/>
+      <c r="I37" s="56"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2183,7 +2180,7 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="70"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2210,7 +2207,7 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="70"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2237,7 +2234,7 @@
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="70"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2269,7 +2266,7 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="70"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2301,7 +2298,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="70"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2328,7 +2325,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="70"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2355,7 +2352,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="70"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2391,7 +2388,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="70"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2430,7 +2427,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="70"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2469,7 +2466,7 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="70"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2508,7 +2505,7 @@
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="70"/>
+      <c r="I48" s="56"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2550,7 +2547,7 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="70"/>
+      <c r="I49" s="56"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2578,7 +2575,7 @@
       <c r="F50" s="46"/>
       <c r="G50" s="46"/>
       <c r="H50" s="32"/>
-      <c r="I50" s="71"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="32"/>
       <c r="K50" s="32"/>
       <c r="L50" s="32"/>
@@ -2606,7 +2603,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="70"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2634,7 +2631,7 @@
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="72"/>
+      <c r="I52" s="58"/>
       <c r="J52" s="33"/>
       <c r="K52" s="33"/>
       <c r="L52" s="34"/>
@@ -2662,7 +2659,7 @@
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
-      <c r="I53" s="72"/>
+      <c r="I53" s="58"/>
       <c r="J53" s="33"/>
       <c r="K53" s="33"/>
       <c r="L53" s="34"/>
@@ -2690,7 +2687,7 @@
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="72"/>
+      <c r="I54" s="58"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
       <c r="L54" s="34"/>
@@ -2718,7 +2715,7 @@
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
-      <c r="I55" s="72"/>
+      <c r="I55" s="58"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
       <c r="L55" s="34"/>
@@ -2747,13 +2744,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2765,6 +2755,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2775,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2808,43 +2805,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2889,58 +2886,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="60" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="65" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="V4" s="64" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -2965,49 +2962,75 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="54"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="65"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="38"/>
+      <c r="B6" s="37">
+        <v>44267</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44270</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034562129</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="38"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="40"/>
+      <c r="I6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>66</v>
+      </c>
       <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="L6" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>67</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>36</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="60" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3026,7 +3049,7 @@
       <c r="F7" s="51"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="40"/>
       <c r="K7" s="1"/>
       <c r="L7" s="40"/>
@@ -3038,7 +3061,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="61"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3055,7 +3078,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="40"/>
       <c r="K8" s="41"/>
       <c r="L8" s="40"/>
@@ -3067,7 +3090,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="61"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3084,7 +3107,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -3096,7 +3119,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="61"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3113,7 +3136,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -3125,7 +3148,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="61"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3154,7 +3177,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="61"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3183,7 +3206,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="60" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3214,7 +3237,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="61"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3243,7 +3266,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="61"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3272,7 +3295,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="61"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3301,7 +3324,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="62"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3420,7 +3443,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3857,7 +3880,7 @@
       </c>
       <c r="V34" s="10">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="14"/>
     </row>
@@ -3953,7 +3976,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4532,13 +4555,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4550,6 +4566,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
